--- a/biology/Zoologie/Dixonius/Dixonius.xlsx
+++ b/biology/Zoologie/Dixonius/Dixonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dixonius est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dixonius est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de James Ray Dixon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de James Ray Dixon.
 </t>
         </is>
       </c>
@@ -573,23 +589,25 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 septembre 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 septembre 2023) :
 Dixonius aaronbaueri Ngo &amp; Ziegler, 2009 - Dixonius de Bauer
-Dixonius dulayaphitakorum Sumontha &amp; Pauwels, 2020[4] - Dixonius de Ranong
-Dixonius fulbrighti Luu et al., 2023[5] - "Dixonius de Fulbright"
-Dixonius gialaiensis Luu et al., 2023[6] - "Dixonius de Gia Lai"
+Dixonius dulayaphitakorum Sumontha &amp; Pauwels, 2020 - Dixonius de Ranong
+Dixonius fulbrighti Luu et al., 2023 - "Dixonius de Fulbright"
+Dixonius gialaiensis Luu et al., 2023 - "Dixonius de Gia Lai"
 Dixonius hangseesom Bauer et al., 2004 - "Dixonius à queue orange"
-Dixonius kaweesaki Sumontha et al., 2017[7] - Dixonius de Sam Roï Yot
-Dixonius lao Nguyen et al., 2020[8] - "Dixonius de Khammouane"
-Dixonius mekongensis Pauwels et al., 2021[9] - Dixonius du Mékong
+Dixonius kaweesaki Sumontha et al., 2017 - Dixonius de Sam Roï Yot
+Dixonius lao Nguyen et al., 2020 - "Dixonius de Khammouane"
+Dixonius mekongensis Pauwels et al., 2021 - Dixonius du Mékong
 Dixonius melanostictus (Taylor, 1962) - Dixonius à taches noires
-Dixonius minhlei Ziegler et al., 2016[10] - "Dixonius de Vinh Cuu"
-Dixonius muangfuangensis Luu et al., 2023[6] - "Dixonius de Muangfuang"
-Dixonius pawangkhananti Pauwels et al., 2020[11] - Dixonius de Cha-am
+Dixonius minhlei Ziegler et al., 2016 - "Dixonius de Vinh Cuu"
+Dixonius muangfuangensis Luu et al., 2023 - "Dixonius de Muangfuang"
+Dixonius pawangkhananti Pauwels et al., 2020 - Dixonius de Cha-am
 Dixonius siamensis (Boulenger, 1899) - Dixonius du Siam
-Dixonius somchanhae Nguyen et al., 2021[12] - "Dixonius de Vientiane"
+Dixonius somchanhae Nguyen et al., 2021 - "Dixonius de Vientiane"
 Dixonius taoi Botov et al., 2015 - "Dixonius de Phu Quy"
 Dixonius vietnamensis Das, 2004 - Dixonius du Vietnam</t>
         </is>
@@ -619,7 +637,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bauer, Good &amp; Branch, 1997 : The taxonomy of the southern African leaf-toed geckos (Squamata: Gekkonidae), with a review of Old World Phyllodactylus and the description of five new genera. Proceedings of the California Academy of Sciences, sér. 4, vol. 49, no 14, p. 447-497 (texte intégral).</t>
         </is>
